--- a/output_additional_column/1947.xlsx
+++ b/output_additional_column/1947.xlsx
@@ -490,7 +490,7 @@
         <v>77457</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>77632</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>73059</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>66000</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>81574</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>78093</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>73059</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>25358</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>70321</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>28389</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>67472</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>74485</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>91712</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>68117</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>81044</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>27469</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76710708989</v>
+        <v>44703.79032634907</v>
       </c>
     </row>
   </sheetData>
